--- a/Code/Results/Cases/Case_3_184/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_184/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.35562309558875</v>
+        <v>19.21311956513562</v>
       </c>
       <c r="C2">
-        <v>7.410146800925485</v>
+        <v>5.743344418853512</v>
       </c>
       <c r="D2">
-        <v>2.765031955860541</v>
+        <v>5.216813384972417</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.70961304830987</v>
+        <v>49.51549123950535</v>
       </c>
       <c r="G2">
-        <v>2.150915567613142</v>
+        <v>3.763195713753014</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.47062197037214</v>
+        <v>35.66441405098071</v>
       </c>
       <c r="J2">
-        <v>5.929548778316891</v>
+        <v>10.23034262778265</v>
       </c>
       <c r="K2">
-        <v>13.69753681496156</v>
+        <v>16.88250202672441</v>
       </c>
       <c r="L2">
-        <v>7.651393307159886</v>
+        <v>12.33274353564821</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.17879389803711</v>
+        <v>24.21248032906135</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.51479292788261</v>
+        <v>19.0876989864023</v>
       </c>
       <c r="C3">
-        <v>6.882347163244972</v>
+        <v>5.602500359000041</v>
       </c>
       <c r="D3">
-        <v>2.672807639742348</v>
+        <v>5.215097600140226</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.1828891441492</v>
+        <v>49.53268130166698</v>
       </c>
       <c r="G3">
-        <v>2.158598052805021</v>
+        <v>3.766032797214222</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.35118046223064</v>
+        <v>35.71591516872429</v>
       </c>
       <c r="J3">
-        <v>5.962061963126426</v>
+        <v>10.24814399230999</v>
       </c>
       <c r="K3">
-        <v>13.05048141663283</v>
+        <v>16.79865698260188</v>
       </c>
       <c r="L3">
-        <v>7.52043639225205</v>
+        <v>12.34064454997506</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.36451520565232</v>
+        <v>24.26824382588179</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.98493724858561</v>
+        <v>19.014841138193</v>
       </c>
       <c r="C4">
-        <v>6.541342600650858</v>
+        <v>5.516057409021329</v>
       </c>
       <c r="D4">
-        <v>2.615433770086213</v>
+        <v>5.214660658222501</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.88048740491191</v>
+        <v>49.55237377341693</v>
       </c>
       <c r="G4">
-        <v>2.16345094121779</v>
+        <v>3.767867048613937</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.29260261927473</v>
+        <v>35.75310255417224</v>
       </c>
       <c r="J4">
-        <v>5.98344068211036</v>
+        <v>10.25981989091935</v>
       </c>
       <c r="K4">
-        <v>12.64538794223117</v>
+        <v>16.7508054396633</v>
       </c>
       <c r="L4">
-        <v>7.442820139513683</v>
+        <v>12.34731203746599</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.48261094440403</v>
+        <v>24.30441262114261</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.76586664032467</v>
+        <v>18.98622182204823</v>
       </c>
       <c r="C5">
-        <v>6.398074499131069</v>
+        <v>5.480898985241092</v>
       </c>
       <c r="D5">
-        <v>2.591898112038113</v>
+        <v>5.214638478663403</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.76248179860447</v>
+        <v>49.5626957063345</v>
       </c>
       <c r="G5">
-        <v>2.165463846051201</v>
+        <v>3.768637801805388</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.27232245608971</v>
+        <v>35.76965479075451</v>
       </c>
       <c r="J5">
-        <v>5.992506502951196</v>
+        <v>10.26476588546568</v>
       </c>
       <c r="K5">
-        <v>12.4785673246694</v>
+        <v>16.73223418934421</v>
       </c>
       <c r="L5">
-        <v>7.411911500786037</v>
+        <v>12.35048637408031</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.53175325226283</v>
+        <v>24.31963768153414</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.72930858906268</v>
+        <v>18.98153503888935</v>
       </c>
       <c r="C6">
-        <v>6.374023522732705</v>
+        <v>5.475066800050466</v>
       </c>
       <c r="D6">
-        <v>2.58798166648246</v>
+        <v>5.214644234089754</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.74320079184183</v>
+        <v>49.56454835753428</v>
       </c>
       <c r="G6">
-        <v>2.165800253020377</v>
+        <v>3.768767193205446</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.26916828021366</v>
+        <v>35.77248767185788</v>
       </c>
       <c r="J6">
-        <v>5.994033187081087</v>
+        <v>10.26559852993397</v>
       </c>
       <c r="K6">
-        <v>12.45076877570299</v>
+        <v>16.72920697485916</v>
       </c>
       <c r="L6">
-        <v>7.406823190773157</v>
+        <v>12.35104110360973</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.53997464688404</v>
+        <v>24.32219516483879</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.98199515389419</v>
+        <v>19.01445079785164</v>
       </c>
       <c r="C7">
-        <v>6.539427933107637</v>
+        <v>5.515582896872914</v>
       </c>
       <c r="D7">
-        <v>2.615116943500847</v>
+        <v>5.214659726869174</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.8788748650623</v>
+        <v>49.55250367939639</v>
       </c>
       <c r="G7">
-        <v>2.163477943480894</v>
+        <v>3.767877348893629</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.29231473496731</v>
+        <v>35.75332012475993</v>
       </c>
       <c r="J7">
-        <v>5.983561516988956</v>
+        <v>10.25988583266327</v>
       </c>
       <c r="K7">
-        <v>12.64314487812835</v>
+        <v>16.75055120119878</v>
       </c>
       <c r="L7">
-        <v>7.442400353238941</v>
+        <v>12.34735299548543</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.4832695799375</v>
+        <v>24.30461598297452</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.06866815613759</v>
+        <v>19.16902980938279</v>
       </c>
       <c r="C8">
-        <v>7.23164626011086</v>
+        <v>5.694808621021211</v>
       </c>
       <c r="D8">
-        <v>2.733406859754151</v>
+        <v>5.216094331460195</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.52360658381401</v>
+        <v>49.51952169107236</v>
       </c>
       <c r="G8">
-        <v>2.153537021445735</v>
+        <v>3.764154836761567</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.4263027736242</v>
+        <v>35.68101572594085</v>
       </c>
       <c r="J8">
-        <v>5.940464207352217</v>
+        <v>10.23632601210968</v>
       </c>
       <c r="K8">
-        <v>13.47617170809514</v>
+        <v>16.85284887501571</v>
       </c>
       <c r="L8">
-        <v>7.605671309673827</v>
+        <v>12.33509122044077</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.24198459181434</v>
+        <v>24.23130749171478</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.08262278087918</v>
+        <v>19.50382333826286</v>
       </c>
       <c r="C9">
-        <v>8.457040792675169</v>
+        <v>6.044076350030372</v>
       </c>
       <c r="D9">
-        <v>2.958168319781254</v>
+        <v>5.223761562249408</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>36.95683347778279</v>
+        <v>49.52734715175666</v>
       </c>
       <c r="G9">
-        <v>2.135064342430375</v>
+        <v>3.757583543004792</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.81154703026512</v>
+        <v>35.58344453169283</v>
       </c>
       <c r="J9">
-        <v>5.867286872080527</v>
+        <v>10.19602323498358</v>
       </c>
       <c r="K9">
-        <v>15.03997829238423</v>
+        <v>17.08149445033021</v>
       </c>
       <c r="L9">
-        <v>7.947164693132634</v>
+        <v>12.32542859332628</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.80132013008034</v>
+        <v>24.10282840827457</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.48168379604233</v>
+        <v>19.76729196338151</v>
       </c>
       <c r="C10">
-        <v>9.280290895470753</v>
+        <v>6.296208850349151</v>
       </c>
       <c r="D10">
-        <v>3.117447996764332</v>
+        <v>5.232300799579272</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>38.11561904117357</v>
+        <v>49.57725144989681</v>
       </c>
       <c r="G10">
-        <v>2.122030983616533</v>
+        <v>3.753194737436422</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.17665763945374</v>
+        <v>35.53878619613234</v>
       </c>
       <c r="J10">
-        <v>5.820596317367991</v>
+        <v>10.16998152089232</v>
       </c>
       <c r="K10">
-        <v>16.13820285970577</v>
+        <v>17.26547685496569</v>
       </c>
       <c r="L10">
-        <v>8.20997951033449</v>
+        <v>12.32705490869864</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.49788773075994</v>
+        <v>24.01770204541674</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.09948573191815</v>
+        <v>19.89053798049155</v>
       </c>
       <c r="C11">
-        <v>9.63890346370259</v>
+        <v>6.40933523603451</v>
       </c>
       <c r="D11">
-        <v>3.188398177079389</v>
+        <v>5.236804376974136</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.6663533175866</v>
+        <v>49.60951343985433</v>
       </c>
       <c r="G11">
-        <v>2.116198337166094</v>
+        <v>3.751292440123347</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.3621808137254</v>
+        <v>35.52434935245184</v>
       </c>
       <c r="J11">
-        <v>5.800932502838331</v>
+        <v>10.15890373053978</v>
       </c>
       <c r="K11">
-        <v>16.62570010820835</v>
+        <v>17.35239254906897</v>
       </c>
       <c r="L11">
-        <v>8.331923602455749</v>
+        <v>12.3296780343535</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.36443228705486</v>
+        <v>23.98097838131507</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.33069797391354</v>
+        <v>19.93765981290802</v>
       </c>
       <c r="C12">
-        <v>9.772489618682304</v>
+        <v>6.451901757990345</v>
       </c>
       <c r="D12">
-        <v>3.215033001096867</v>
+        <v>5.238597663324626</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>38.87834813420846</v>
+        <v>49.62310069456789</v>
       </c>
       <c r="G12">
-        <v>2.114001670565909</v>
+        <v>3.750585553028538</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.43536176257625</v>
+        <v>35.51972817901041</v>
       </c>
       <c r="J12">
-        <v>5.793716891936664</v>
+        <v>10.15481896467974</v>
       </c>
       <c r="K12">
-        <v>16.80850862836747</v>
+        <v>17.38574547414563</v>
       </c>
       <c r="L12">
-        <v>8.378429260409135</v>
+        <v>12.33094096254069</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.31457423876632</v>
+        <v>23.96735912130069</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.28102452682514</v>
+        <v>19.92749180516855</v>
       </c>
       <c r="C13">
-        <v>9.743816650132347</v>
+        <v>6.442747091352227</v>
       </c>
       <c r="D13">
-        <v>3.209307270022738</v>
+        <v>5.238207557162715</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>38.83253718637418</v>
+        <v>49.62011357095768</v>
       </c>
       <c r="G13">
-        <v>2.114474257618751</v>
+        <v>3.750737195817867</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.41946858509497</v>
+        <v>35.5206858126049</v>
       </c>
       <c r="J13">
-        <v>5.795260575988136</v>
+        <v>10.15569379914658</v>
       </c>
       <c r="K13">
-        <v>16.76921806485513</v>
+        <v>17.37854314320955</v>
       </c>
       <c r="L13">
-        <v>8.368399057604964</v>
+        <v>12.33065699809746</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.32528150486754</v>
+        <v>23.97027950747362</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.1185627456614</v>
+        <v>19.8944058909196</v>
       </c>
       <c r="C14">
-        <v>9.649937588967356</v>
+        <v>6.41284291275672</v>
       </c>
       <c r="D14">
-        <v>3.190594177611899</v>
+        <v>5.236950157164118</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.68372491740031</v>
+        <v>49.61060383671354</v>
       </c>
       <c r="G14">
-        <v>2.11601738595548</v>
+        <v>3.751234014522344</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.36814201159443</v>
+        <v>35.52395221421427</v>
       </c>
       <c r="J14">
-        <v>5.800334223053024</v>
+        <v>10.15856546897276</v>
       </c>
       <c r="K14">
-        <v>16.64077610891516</v>
+        <v>17.3551278358409</v>
       </c>
       <c r="L14">
-        <v>8.335743153651579</v>
+        <v>12.32977654025697</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.3603167013534</v>
+        <v>23.97985216364415</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.01869277956168</v>
+        <v>19.87419747797615</v>
       </c>
       <c r="C15">
-        <v>9.592148035823179</v>
+        <v>6.394489007102895</v>
       </c>
       <c r="D15">
-        <v>3.179101182549741</v>
+        <v>5.236191373312414</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38.59302324167013</v>
+        <v>49.60495716026925</v>
       </c>
       <c r="G15">
-        <v>2.116964106668207</v>
+        <v>3.75154008256409</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.33708823728962</v>
+        <v>35.52606312879536</v>
       </c>
       <c r="J15">
-        <v>5.803472142466847</v>
+        <v>10.16033878338004</v>
       </c>
       <c r="K15">
-        <v>16.56186653341124</v>
+        <v>17.34084185723233</v>
       </c>
       <c r="L15">
-        <v>8.31578278697708</v>
+        <v>12.32927230720427</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.38186583255765</v>
+        <v>23.98575307835415</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.44092846464391</v>
+        <v>19.7593027035353</v>
       </c>
       <c r="C16">
-        <v>9.25654104499456</v>
+        <v>6.288780152169755</v>
       </c>
       <c r="D16">
-        <v>3.112779487534225</v>
+        <v>5.232018840617179</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>38.08010619930891</v>
+        <v>49.57533507557753</v>
       </c>
       <c r="G16">
-        <v>2.122413946678769</v>
+        <v>3.753320946167791</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.16493558721012</v>
+        <v>35.53984801036398</v>
       </c>
       <c r="J16">
-        <v>5.82191344101655</v>
+        <v>10.17072091587265</v>
       </c>
       <c r="K16">
-        <v>16.10609496194589</v>
+        <v>17.25985954922452</v>
       </c>
       <c r="L16">
-        <v>8.202056860969922</v>
+        <v>12.3269212776679</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.50670310975542</v>
+        <v>24.02014223928099</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.08166552643927</v>
+        <v>19.68966164090682</v>
       </c>
       <c r="C17">
-        <v>9.046637253989859</v>
+        <v>6.223495093966998</v>
       </c>
       <c r="D17">
-        <v>3.071695028074283</v>
+        <v>5.229616882244525</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>37.77152513923976</v>
+        <v>49.55960867889889</v>
       </c>
       <c r="G17">
-        <v>2.125780665739455</v>
+        <v>3.754437521033323</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.06439626057653</v>
+        <v>35.54981059425456</v>
       </c>
       <c r="J17">
-        <v>5.833632956513446</v>
+        <v>10.17728662768281</v>
       </c>
       <c r="K17">
-        <v>15.82334791141796</v>
+        <v>17.21098818040795</v>
       </c>
       <c r="L17">
-        <v>8.132889625709593</v>
+        <v>12.32596053634409</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.58447225876537</v>
+        <v>24.04175094535525</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.87327397962042</v>
+        <v>19.6499275397629</v>
       </c>
       <c r="C18">
-        <v>8.924406060530794</v>
+        <v>6.185799628603853</v>
       </c>
       <c r="D18">
-        <v>3.047923222525915</v>
+        <v>5.22829367687464</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>37.59625510732192</v>
+        <v>49.5514634575518</v>
       </c>
       <c r="G18">
-        <v>2.127726294719778</v>
+        <v>3.75508861553215</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.00838967372032</v>
+        <v>35.55609410806947</v>
       </c>
       <c r="J18">
-        <v>5.840521782878597</v>
+        <v>10.18113542959235</v>
       </c>
       <c r="K18">
-        <v>15.65958298244927</v>
+        <v>17.18318330645578</v>
       </c>
       <c r="L18">
-        <v>8.093332033231057</v>
+        <v>12.3255852894118</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.62963239775774</v>
+        <v>24.05436805031486</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.80241731147686</v>
+        <v>19.63653059413132</v>
       </c>
       <c r="C19">
-        <v>8.882760932111378</v>
+        <v>6.173013114611319</v>
       </c>
       <c r="D19">
-        <v>3.039850796940458</v>
+        <v>5.227855715690539</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>37.5372911721986</v>
+        <v>49.54886035157248</v>
       </c>
       <c r="G19">
-        <v>2.128386680998282</v>
+        <v>3.755310590639832</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.98973556068042</v>
+        <v>35.55831661008578</v>
       </c>
       <c r="J19">
-        <v>5.842879536429265</v>
+        <v>10.18245101066707</v>
       </c>
       <c r="K19">
-        <v>15.60394201137784</v>
+        <v>17.17382207567674</v>
       </c>
       <c r="L19">
-        <v>8.079977766131963</v>
+        <v>12.32548873141053</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.6449960423824</v>
+        <v>24.05867235025168</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.12009161129556</v>
+        <v>19.69704202993908</v>
       </c>
       <c r="C20">
-        <v>9.06913661967498</v>
+        <v>6.230460176226199</v>
       </c>
       <c r="D20">
-        <v>3.076083268232198</v>
+        <v>5.229866545199473</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37.80414426717321</v>
+        <v>49.56118964350797</v>
       </c>
       <c r="G20">
-        <v>2.125421335193319</v>
+        <v>3.754317742234289</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.07490942704586</v>
+        <v>35.54869279178098</v>
       </c>
       <c r="J20">
-        <v>5.832370041438192</v>
+        <v>10.17658020840365</v>
       </c>
       <c r="K20">
-        <v>15.85356492004658</v>
+        <v>17.21615925816783</v>
       </c>
       <c r="L20">
-        <v>8.140229370158092</v>
+        <v>12.32604446261046</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.57614902731452</v>
+        <v>24.03943117203595</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.16635625492198</v>
+        <v>19.90411207500706</v>
       </c>
       <c r="C21">
-        <v>9.677571593176394</v>
+        <v>6.421634227570156</v>
       </c>
       <c r="D21">
-        <v>3.196097084795561</v>
+        <v>5.23731711029376</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38.72734077549693</v>
+        <v>49.61335992574706</v>
       </c>
       <c r="G21">
-        <v>2.115563820534146</v>
+        <v>3.751087721790319</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.3831373455018</v>
+        <v>35.52296983747772</v>
       </c>
       <c r="J21">
-        <v>5.798837675966637</v>
+        <v>10.15771900348676</v>
       </c>
       <c r="K21">
-        <v>16.67855170021694</v>
+        <v>17.36199373214617</v>
       </c>
       <c r="L21">
-        <v>8.345326188644018</v>
+        <v>12.33002784526374</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.35000741153184</v>
+        <v>23.97703265207025</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.83419879648823</v>
+        <v>20.04205703282862</v>
       </c>
       <c r="C22">
-        <v>10.06235966059318</v>
+        <v>6.544973211903722</v>
       </c>
       <c r="D22">
-        <v>3.273173071293117</v>
+        <v>5.242698153722809</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>39.35080702734508</v>
+        <v>49.65544084828055</v>
       </c>
       <c r="G22">
-        <v>2.109190524310268</v>
+        <v>3.749055205994594</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.60170950739589</v>
+        <v>35.51108806328282</v>
       </c>
       <c r="J22">
-        <v>5.778268916528868</v>
+        <v>10.14603399392572</v>
       </c>
       <c r="K22">
-        <v>17.20725056694476</v>
+        <v>17.45985734827787</v>
       </c>
       <c r="L22">
-        <v>8.481276128941628</v>
+        <v>12.33420204456092</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.20617930011243</v>
+        <v>23.93792537917184</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.4792288876736</v>
+        <v>19.96820643128589</v>
       </c>
       <c r="C23">
-        <v>9.858142353873465</v>
+        <v>6.479306037102769</v>
       </c>
       <c r="D23">
-        <v>3.232164955846979</v>
+        <v>5.239779759303835</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>39.01619236718215</v>
+        <v>49.6322525931788</v>
       </c>
       <c r="G23">
-        <v>2.112586386973608</v>
+        <v>3.750132840186039</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.48344133629557</v>
+        <v>35.5169784527543</v>
       </c>
       <c r="J23">
-        <v>5.789122194786285</v>
+        <v>10.15221189868339</v>
       </c>
       <c r="K23">
-        <v>16.92604507853491</v>
+        <v>17.40740006556226</v>
       </c>
       <c r="L23">
-        <v>8.408546874857379</v>
+        <v>12.33183089707965</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.28257197387114</v>
+        <v>23.9586446804277</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.10272492517454</v>
+        <v>19.69370440795515</v>
       </c>
       <c r="C24">
-        <v>9.058969504394462</v>
+        <v>6.227311764256681</v>
       </c>
       <c r="D24">
-        <v>3.074099816451641</v>
+        <v>5.229753492745002</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>37.78939050578808</v>
+        <v>49.56047209768375</v>
       </c>
       <c r="G24">
-        <v>2.125583757071293</v>
+        <v>3.754371865687696</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.07015084406388</v>
+        <v>35.54919641864653</v>
       </c>
       <c r="J24">
-        <v>5.832940534935744</v>
+        <v>10.17689934975459</v>
       </c>
       <c r="K24">
-        <v>15.83990757429835</v>
+        <v>17.21382050279096</v>
       </c>
       <c r="L24">
-        <v>8.136910423945704</v>
+        <v>12.32600596781904</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.57991056127296</v>
+        <v>24.04047933723704</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.55143164492102</v>
+        <v>19.41004406957971</v>
       </c>
       <c r="C25">
-        <v>8.139333153290641</v>
+        <v>5.950160196683836</v>
       </c>
       <c r="D25">
-        <v>2.898299503388761</v>
+        <v>5.221173007333258</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>36.55072142425408</v>
+        <v>49.51746904714719</v>
       </c>
       <c r="G25">
-        <v>2.139960656511054</v>
+        <v>3.759283776923893</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.69345171194967</v>
+        <v>35.60509804860688</v>
       </c>
       <c r="J25">
-        <v>5.885854000077892</v>
+        <v>10.20629757205462</v>
       </c>
       <c r="K25">
-        <v>14.62535971242755</v>
+        <v>17.01674671413221</v>
       </c>
       <c r="L25">
-        <v>7.852612931193555</v>
+        <v>12.32650675292799</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.91700943586006</v>
+        <v>24.13595465527302</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_184/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_184/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.21311956513562</v>
+        <v>16.3556230955888</v>
       </c>
       <c r="C2">
-        <v>5.743344418853512</v>
+        <v>7.410146800925427</v>
       </c>
       <c r="D2">
-        <v>5.216813384972417</v>
+        <v>2.765031955860533</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>49.51549123950535</v>
+        <v>35.70961304831015</v>
       </c>
       <c r="G2">
-        <v>3.763195713753014</v>
+        <v>2.150915567613144</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.66441405098071</v>
+        <v>24.47062197037236</v>
       </c>
       <c r="J2">
-        <v>10.23034262778265</v>
+        <v>5.929548778316826</v>
       </c>
       <c r="K2">
-        <v>16.88250202672441</v>
+        <v>13.6975368149616</v>
       </c>
       <c r="L2">
-        <v>12.33274353564821</v>
+        <v>7.651393307159895</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>24.21248032906135</v>
+        <v>16.17879389803721</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.0876989864023</v>
+        <v>15.51479292788252</v>
       </c>
       <c r="C3">
-        <v>5.602500359000041</v>
+        <v>6.882347163245066</v>
       </c>
       <c r="D3">
-        <v>5.215097600140226</v>
+        <v>2.672807639742435</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>49.53268130166698</v>
+        <v>35.18288914414894</v>
       </c>
       <c r="G3">
-        <v>3.766032797214222</v>
+        <v>2.158598052805019</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>35.71591516872429</v>
+        <v>24.35118046223044</v>
       </c>
       <c r="J3">
-        <v>10.24814399230999</v>
+        <v>5.962061963126487</v>
       </c>
       <c r="K3">
-        <v>16.79865698260188</v>
+        <v>13.05048141663275</v>
       </c>
       <c r="L3">
-        <v>12.34064454997506</v>
+        <v>7.520436392252096</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.26824382588179</v>
+        <v>16.36451520565222</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.014841138193</v>
+        <v>14.98493724858554</v>
       </c>
       <c r="C4">
-        <v>5.516057409021329</v>
+        <v>6.541342600650878</v>
       </c>
       <c r="D4">
-        <v>5.214660658222501</v>
+        <v>2.615433770086372</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>49.55237377341693</v>
+        <v>34.88048740491179</v>
       </c>
       <c r="G4">
-        <v>3.767867048613937</v>
+        <v>2.163450941218054</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>35.75310255417224</v>
+        <v>24.29260261927457</v>
       </c>
       <c r="J4">
-        <v>10.25981989091935</v>
+        <v>5.983440682110333</v>
       </c>
       <c r="K4">
-        <v>16.7508054396633</v>
+        <v>12.64538794223112</v>
       </c>
       <c r="L4">
-        <v>12.34731203746599</v>
+        <v>7.442820139513724</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>24.30441262114261</v>
+        <v>16.48261094440398</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.98622182204823</v>
+        <v>14.7658666403246</v>
       </c>
       <c r="C5">
-        <v>5.480898985241092</v>
+        <v>6.398074499131012</v>
       </c>
       <c r="D5">
-        <v>5.214638478663403</v>
+        <v>2.591898112038153</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>49.5626957063345</v>
+        <v>34.76248179860426</v>
       </c>
       <c r="G5">
-        <v>3.768637801805388</v>
+        <v>2.165463846051201</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>35.76965479075451</v>
+        <v>24.27232245608954</v>
       </c>
       <c r="J5">
-        <v>10.26476588546568</v>
+        <v>5.992506502951196</v>
       </c>
       <c r="K5">
-        <v>16.73223418934421</v>
+        <v>12.47856732466933</v>
       </c>
       <c r="L5">
-        <v>12.35048637408031</v>
+        <v>7.41191150078606</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>24.31963768153414</v>
+        <v>16.53175325226274</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.98153503888935</v>
+        <v>14.72930858906279</v>
       </c>
       <c r="C6">
-        <v>5.475066800050466</v>
+        <v>6.374023522732554</v>
       </c>
       <c r="D6">
-        <v>5.214644234089754</v>
+        <v>2.587981666482269</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>49.56454835753428</v>
+        <v>34.74320079184229</v>
       </c>
       <c r="G6">
-        <v>3.768767193205446</v>
+        <v>2.165800253020243</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>35.77248767185788</v>
+        <v>24.26916828021403</v>
       </c>
       <c r="J6">
-        <v>10.26559852993397</v>
+        <v>5.994033187081124</v>
       </c>
       <c r="K6">
-        <v>16.72920697485916</v>
+        <v>12.45076877570312</v>
       </c>
       <c r="L6">
-        <v>12.35104110360973</v>
+        <v>7.406823190773237</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>24.32219516483879</v>
+        <v>16.53997464688421</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.01445079785164</v>
+        <v>14.98199515389425</v>
       </c>
       <c r="C7">
-        <v>5.515582896872914</v>
+        <v>6.539427933107667</v>
       </c>
       <c r="D7">
-        <v>5.214659726869174</v>
+        <v>2.615116943500716</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>49.55250367939639</v>
+        <v>34.87887486506229</v>
       </c>
       <c r="G7">
-        <v>3.767877348893629</v>
+        <v>2.163477943480897</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>35.75332012475993</v>
+        <v>24.29231473496738</v>
       </c>
       <c r="J7">
-        <v>10.25988583266327</v>
+        <v>5.983561516989048</v>
       </c>
       <c r="K7">
-        <v>16.75055120119878</v>
+        <v>12.64314487812836</v>
       </c>
       <c r="L7">
-        <v>12.34735299548543</v>
+        <v>7.44240035323894</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>24.30461598297452</v>
+        <v>16.48326957993752</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.16902980938279</v>
+        <v>16.06866815613761</v>
       </c>
       <c r="C8">
-        <v>5.694808621021211</v>
+        <v>7.231646260110998</v>
       </c>
       <c r="D8">
-        <v>5.216094331460195</v>
+        <v>2.733406859754266</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>49.51952169107236</v>
+        <v>35.52360658381393</v>
       </c>
       <c r="G8">
-        <v>3.764154836761567</v>
+        <v>2.15353702144587</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.68101572594085</v>
+        <v>24.42630277362413</v>
       </c>
       <c r="J8">
-        <v>10.23632601210968</v>
+        <v>5.940464207352159</v>
       </c>
       <c r="K8">
-        <v>16.85284887501571</v>
+        <v>13.47617170809511</v>
       </c>
       <c r="L8">
-        <v>12.33509122044077</v>
+        <v>7.605671309673834</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>24.23130749171478</v>
+        <v>16.24198459181432</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.50382333826286</v>
+        <v>18.08262278087922</v>
       </c>
       <c r="C9">
-        <v>6.044076350030372</v>
+        <v>8.457040792675038</v>
       </c>
       <c r="D9">
-        <v>5.223761562249408</v>
+        <v>2.958168319781175</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>49.52734715175666</v>
+        <v>36.95683347778299</v>
       </c>
       <c r="G9">
-        <v>3.757583543004792</v>
+        <v>2.135064342430239</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>35.58344453169283</v>
+        <v>24.81154703026528</v>
       </c>
       <c r="J9">
-        <v>10.19602323498358</v>
+        <v>5.867286872080681</v>
       </c>
       <c r="K9">
-        <v>17.08149445033021</v>
+        <v>15.03997829238426</v>
       </c>
       <c r="L9">
-        <v>12.32542859332628</v>
+        <v>7.947164693132717</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>24.10282840827457</v>
+        <v>15.80132013008041</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.76729196338151</v>
+        <v>19.48168379604238</v>
       </c>
       <c r="C10">
-        <v>6.296208850349151</v>
+        <v>9.280290895470765</v>
       </c>
       <c r="D10">
-        <v>5.232300799579272</v>
+        <v>3.117447996764353</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>49.57725144989681</v>
+        <v>38.11561904117353</v>
       </c>
       <c r="G10">
-        <v>3.753194737436422</v>
+        <v>2.122030983616262</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>35.53878619613234</v>
+        <v>25.17665763945371</v>
       </c>
       <c r="J10">
-        <v>10.16998152089232</v>
+        <v>5.820596317368084</v>
       </c>
       <c r="K10">
-        <v>17.26547685496569</v>
+        <v>16.13820285970577</v>
       </c>
       <c r="L10">
-        <v>12.32705490869864</v>
+        <v>8.209979510334547</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>24.01770204541674</v>
+        <v>15.49788773075983</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.89053798049155</v>
+        <v>20.09948573191819</v>
       </c>
       <c r="C11">
-        <v>6.40933523603451</v>
+        <v>9.638903463702754</v>
       </c>
       <c r="D11">
-        <v>5.236804376974136</v>
+        <v>3.18839817707947</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.60951343985433</v>
+        <v>38.66635331758665</v>
       </c>
       <c r="G11">
-        <v>3.751292440123347</v>
+        <v>2.116198337166224</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.52434935245184</v>
+        <v>25.36218081372547</v>
       </c>
       <c r="J11">
-        <v>10.15890373053978</v>
+        <v>5.80093250283822</v>
       </c>
       <c r="K11">
-        <v>17.35239254906897</v>
+        <v>16.62570010820836</v>
       </c>
       <c r="L11">
-        <v>12.3296780343535</v>
+        <v>8.331923602455673</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>23.98097838131507</v>
+        <v>15.36443228705481</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.93765981290802</v>
+        <v>20.33069797391355</v>
       </c>
       <c r="C12">
-        <v>6.451901757990345</v>
+        <v>9.772489618682547</v>
       </c>
       <c r="D12">
-        <v>5.238597663324626</v>
+        <v>3.215033001096954</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.62310069456789</v>
+        <v>38.87834813420848</v>
       </c>
       <c r="G12">
-        <v>3.750585553028538</v>
+        <v>2.114001670566308</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>35.51972817901041</v>
+        <v>25.43536176257626</v>
       </c>
       <c r="J12">
-        <v>10.15481896467974</v>
+        <v>5.793716891936724</v>
       </c>
       <c r="K12">
-        <v>17.38574547414563</v>
+        <v>16.80850862836747</v>
       </c>
       <c r="L12">
-        <v>12.33094096254069</v>
+        <v>8.378429260409158</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>23.96735912130069</v>
+        <v>15.3145742387663</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.92749180516855</v>
+        <v>20.28102452682515</v>
       </c>
       <c r="C13">
-        <v>6.442747091352227</v>
+        <v>9.743816650132455</v>
       </c>
       <c r="D13">
-        <v>5.238207557162715</v>
+        <v>3.209307270022776</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.62011357095768</v>
+        <v>38.83253718637418</v>
       </c>
       <c r="G13">
-        <v>3.750737195817867</v>
+        <v>2.114474257618614</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.5206858126049</v>
+        <v>25.41946858509497</v>
       </c>
       <c r="J13">
-        <v>10.15569379914658</v>
+        <v>5.795260575988233</v>
       </c>
       <c r="K13">
-        <v>17.37854314320955</v>
+        <v>16.76921806485514</v>
       </c>
       <c r="L13">
-        <v>12.33065699809746</v>
+        <v>8.36839905760502</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>23.97027950747362</v>
+        <v>15.32528150486746</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.8944058909196</v>
+        <v>20.11856274566142</v>
       </c>
       <c r="C14">
-        <v>6.41284291275672</v>
+        <v>9.64993758896733</v>
       </c>
       <c r="D14">
-        <v>5.236950157164118</v>
+        <v>3.190594177611884</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.61060383671354</v>
+        <v>38.68372491740056</v>
       </c>
       <c r="G14">
-        <v>3.751234014522344</v>
+        <v>2.116017385955479</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.52395221421427</v>
+        <v>25.36814201159466</v>
       </c>
       <c r="J14">
-        <v>10.15856546897276</v>
+        <v>5.800334223053056</v>
       </c>
       <c r="K14">
-        <v>17.3551278358409</v>
+        <v>16.64077610891519</v>
       </c>
       <c r="L14">
-        <v>12.32977654025697</v>
+        <v>8.335743153651569</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>23.97985216364415</v>
+        <v>15.36031670135353</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.87419747797615</v>
+        <v>20.01869277956168</v>
       </c>
       <c r="C15">
-        <v>6.394489007102895</v>
+        <v>9.592148035823115</v>
       </c>
       <c r="D15">
-        <v>5.236191373312414</v>
+        <v>3.179101182549733</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.60495716026925</v>
+        <v>38.59302324167007</v>
       </c>
       <c r="G15">
-        <v>3.75154008256409</v>
+        <v>2.116964106668473</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.52606312879536</v>
+        <v>25.33708823728957</v>
       </c>
       <c r="J15">
-        <v>10.16033878338004</v>
+        <v>5.803472142466786</v>
       </c>
       <c r="K15">
-        <v>17.34084185723233</v>
+        <v>16.56186653341123</v>
       </c>
       <c r="L15">
-        <v>12.32927230720427</v>
+        <v>8.315782786977088</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>23.98575307835415</v>
+        <v>15.38186583255765</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.7593027035353</v>
+        <v>19.4409284646439</v>
       </c>
       <c r="C16">
-        <v>6.288780152169755</v>
+        <v>9.256541044994391</v>
       </c>
       <c r="D16">
-        <v>5.232018840617179</v>
+        <v>3.112779487534142</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>49.57533507557753</v>
+        <v>38.08010619930909</v>
       </c>
       <c r="G16">
-        <v>3.753320946167791</v>
+        <v>2.122413946678902</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>35.53984801036398</v>
+        <v>25.16493558721031</v>
       </c>
       <c r="J16">
-        <v>10.17072091587265</v>
+        <v>5.821913441016615</v>
       </c>
       <c r="K16">
-        <v>17.25985954922452</v>
+        <v>16.1060949619459</v>
       </c>
       <c r="L16">
-        <v>12.3269212776679</v>
+        <v>8.202056860969963</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>24.02014223928099</v>
+        <v>15.50670310975563</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.68966164090682</v>
+        <v>19.08166552643928</v>
       </c>
       <c r="C17">
-        <v>6.223495093966998</v>
+        <v>9.046637253989859</v>
       </c>
       <c r="D17">
-        <v>5.229616882244525</v>
+        <v>3.071695028074204</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>49.55960867889889</v>
+        <v>37.77152513923976</v>
       </c>
       <c r="G17">
-        <v>3.754437521033323</v>
+        <v>2.125780665739588</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>35.54981059425456</v>
+        <v>25.06439626057658</v>
       </c>
       <c r="J17">
-        <v>10.17728662768281</v>
+        <v>5.833632956513506</v>
       </c>
       <c r="K17">
-        <v>17.21098818040795</v>
+        <v>15.82334791141796</v>
       </c>
       <c r="L17">
-        <v>12.32596053634409</v>
+        <v>8.132889625709575</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>24.04175094535525</v>
+        <v>15.58447225876537</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.6499275397629</v>
+        <v>18.87327397962043</v>
       </c>
       <c r="C18">
-        <v>6.185799628603853</v>
+        <v>8.924406060530856</v>
       </c>
       <c r="D18">
-        <v>5.22829367687464</v>
+        <v>3.047923222525755</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>49.5514634575518</v>
+        <v>37.59625510732158</v>
       </c>
       <c r="G18">
-        <v>3.75508861553215</v>
+        <v>2.127726294719911</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>35.55609410806947</v>
+        <v>25.00838967372011</v>
       </c>
       <c r="J18">
-        <v>10.18113542959235</v>
+        <v>5.84052178287866</v>
       </c>
       <c r="K18">
-        <v>17.18318330645578</v>
+        <v>15.65958298244925</v>
       </c>
       <c r="L18">
-        <v>12.3255852894118</v>
+        <v>8.093332033230963</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>24.05436805031486</v>
+        <v>15.62963239775761</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.63653059413132</v>
+        <v>18.80241731147688</v>
       </c>
       <c r="C19">
-        <v>6.173013114611319</v>
+        <v>8.882760932111406</v>
       </c>
       <c r="D19">
-        <v>5.227855715690539</v>
+        <v>3.039850796940515</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>49.54886035157248</v>
+        <v>37.53729117219854</v>
       </c>
       <c r="G19">
-        <v>3.755310590639832</v>
+        <v>2.128386680998284</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>35.55831661008578</v>
+        <v>24.98973556068033</v>
       </c>
       <c r="J19">
-        <v>10.18245101066707</v>
+        <v>5.84287953642921</v>
       </c>
       <c r="K19">
-        <v>17.17382207567674</v>
+        <v>15.60394201137784</v>
       </c>
       <c r="L19">
-        <v>12.32548873141053</v>
+        <v>8.079977766131934</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>24.05867235025168</v>
+        <v>15.64499604238232</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.69704202993908</v>
+        <v>19.12009161129558</v>
       </c>
       <c r="C20">
-        <v>6.230460176226199</v>
+        <v>9.069136619674882</v>
       </c>
       <c r="D20">
-        <v>5.229866545199473</v>
+        <v>3.076083268232263</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>49.56118964350797</v>
+        <v>37.80414426717314</v>
       </c>
       <c r="G20">
-        <v>3.754317742234289</v>
+        <v>2.125421335193451</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>35.54869279178098</v>
+        <v>25.07490942704573</v>
       </c>
       <c r="J20">
-        <v>10.17658020840365</v>
+        <v>5.832370041438073</v>
       </c>
       <c r="K20">
-        <v>17.21615925816783</v>
+        <v>15.85356492004659</v>
       </c>
       <c r="L20">
-        <v>12.32604446261046</v>
+        <v>8.140229370158107</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>24.03943117203595</v>
+        <v>15.57614902731438</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.90411207500706</v>
+        <v>20.16635625492201</v>
       </c>
       <c r="C21">
-        <v>6.421634227570156</v>
+        <v>9.677571593176387</v>
       </c>
       <c r="D21">
-        <v>5.23731711029376</v>
+        <v>3.196097084795527</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.61335992574706</v>
+        <v>38.72734077549709</v>
       </c>
       <c r="G21">
-        <v>3.751087721790319</v>
+        <v>2.115563820534013</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>35.52296983747772</v>
+        <v>25.38313734550191</v>
       </c>
       <c r="J21">
-        <v>10.15771900348676</v>
+        <v>5.798837675966725</v>
       </c>
       <c r="K21">
-        <v>17.36199373214617</v>
+        <v>16.67855170021696</v>
       </c>
       <c r="L21">
-        <v>12.33002784526374</v>
+        <v>8.345326188644108</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>23.97703265207025</v>
+        <v>15.35000741153186</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.04205703282862</v>
+        <v>20.83419879648823</v>
       </c>
       <c r="C22">
-        <v>6.544973211903722</v>
+        <v>10.06235966059323</v>
       </c>
       <c r="D22">
-        <v>5.242698153722809</v>
+        <v>3.273173071293143</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>49.65544084828055</v>
+        <v>39.35080702734506</v>
       </c>
       <c r="G22">
-        <v>3.749055205994594</v>
+        <v>2.109190524310137</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>35.51108806328282</v>
+        <v>25.60170950739583</v>
       </c>
       <c r="J22">
-        <v>10.14603399392572</v>
+        <v>5.77826891652893</v>
       </c>
       <c r="K22">
-        <v>17.45985734827787</v>
+        <v>17.20725056694476</v>
       </c>
       <c r="L22">
-        <v>12.33420204456092</v>
+        <v>8.481276128941628</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>23.93792537917184</v>
+        <v>15.20617930011233</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.96820643128589</v>
+        <v>20.47922888767358</v>
       </c>
       <c r="C23">
-        <v>6.479306037102769</v>
+        <v>9.858142353873243</v>
       </c>
       <c r="D23">
-        <v>5.239779759303835</v>
+        <v>3.23216495584692</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.6322525931788</v>
+        <v>39.0161923671824</v>
       </c>
       <c r="G23">
-        <v>3.750132840186039</v>
+        <v>2.11258638697361</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>35.5169784527543</v>
+        <v>25.48344133629579</v>
       </c>
       <c r="J23">
-        <v>10.15221189868339</v>
+        <v>5.789122194786288</v>
       </c>
       <c r="K23">
-        <v>17.40740006556226</v>
+        <v>16.92604507853492</v>
       </c>
       <c r="L23">
-        <v>12.33183089707965</v>
+        <v>8.408546874857413</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>23.9586446804277</v>
+        <v>15.28257197387135</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.69370440795515</v>
+        <v>19.10272492517452</v>
       </c>
       <c r="C24">
-        <v>6.227311764256681</v>
+        <v>9.058969504394508</v>
       </c>
       <c r="D24">
-        <v>5.229753492745002</v>
+        <v>3.074099816451606</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>49.56047209768375</v>
+        <v>37.78939050578784</v>
       </c>
       <c r="G24">
-        <v>3.754371865687696</v>
+        <v>2.125583757071563</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>35.54919641864653</v>
+        <v>25.07015084406371</v>
       </c>
       <c r="J24">
-        <v>10.17689934975459</v>
+        <v>5.832940534935836</v>
       </c>
       <c r="K24">
-        <v>17.21382050279096</v>
+        <v>15.83990757429832</v>
       </c>
       <c r="L24">
-        <v>12.32600596781904</v>
+        <v>8.136910423945734</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>24.04047933723704</v>
+        <v>15.57991056127288</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.41004406957971</v>
+        <v>17.551431644921</v>
       </c>
       <c r="C25">
-        <v>5.950160196683836</v>
+        <v>8.139333153290547</v>
       </c>
       <c r="D25">
-        <v>5.221173007333258</v>
+        <v>2.898299503388765</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>49.51746904714719</v>
+        <v>36.55072142425407</v>
       </c>
       <c r="G25">
-        <v>3.759283776923893</v>
+        <v>2.139960656511189</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>35.60509804860688</v>
+        <v>24.6934517119496</v>
       </c>
       <c r="J25">
-        <v>10.20629757205462</v>
+        <v>5.885854000077802</v>
       </c>
       <c r="K25">
-        <v>17.01674671413221</v>
+        <v>14.62535971242754</v>
       </c>
       <c r="L25">
-        <v>12.32650675292799</v>
+        <v>7.852612931193535</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>24.13595465527302</v>
+        <v>15.91700943586003</v>
       </c>
       <c r="O25">
         <v>0</v>
